--- a/BalanceSheet/AFL_bal.xlsx
+++ b/BalanceSheet/AFL_bal.xlsx
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>8088000000.0</v>
+        <v>3098000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2702000000.0</v>
@@ -3440,7 +3440,7 @@
         <v>2610000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1620000000.0</v>
+        <v>1673000000.0</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2017000000.0</v>
@@ -3567,7 +3567,7 @@
         <v>6758000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>6516000000.0</v>
+        <v>6569000000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>6233000000.0</v>
